--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -361,36 +361,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -364,39 +364,39 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>7</v>
